--- a/CUKBM/CUKBM url_mapping.xlsx
+++ b/CUKBM/CUKBM url_mapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkstk\Desktop\CUKBM 팀플\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoon\Documents\GitHub\CUKBM\CUKBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E7C4F1-0E88-4F7C-8B7B-7673654F6418}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EF661D-438F-4B33-A726-0BDA004B4D17}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6F530BDD-8E11-42FA-A116-4FCD58A76D50}"/>
+    <workbookView xWindow="-264" yWindow="1956" windowWidth="23040" windowHeight="11760" xr2:uid="{6F530BDD-8E11-42FA-A116-4FCD58A76D50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -263,7 +263,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -442,7 +442,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -501,9 +501,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
@@ -531,8 +528,36 @@
     <cellStyle name="표준_Sheet1_1" xfId="2" xr:uid="{310BB377-2FFE-4659-AAA4-A2990AF0CACB}"/>
     <cellStyle name="하이퍼링크" xfId="3" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{977BA39A-E8DD-411D-A5AE-189EEDB31930}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -843,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1DD318F-1511-4D0E-9A0A-C129F1336B78}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -857,13 +882,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.4">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
       <c r="F1" s="6"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -1009,7 +1034,7 @@
       <c r="D9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="22" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="6" t="s">
@@ -1023,16 +1048,16 @@
       <c r="B10" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="23" t="s">
         <v>55</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="24" t="s">
         <v>50</v>
       </c>
       <c r="G10" s="1"/>
@@ -1050,7 +1075,7 @@
       <c r="E11" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="21" t="s">
         <v>47</v>
       </c>
       <c r="G11" s="1"/>
@@ -1068,7 +1093,7 @@
       <c r="E12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="22"/>
+      <c r="F12" s="21"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
@@ -1084,7 +1109,7 @@
       <c r="E13" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="20" t="s">
         <v>48</v>
       </c>
       <c r="G13" s="1"/>
@@ -1102,7 +1127,7 @@
       <c r="E14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="21"/>
+      <c r="F14" s="20"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
@@ -1115,10 +1140,10 @@
       <c r="D15" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="21"/>
+      <c r="F15" s="20"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
@@ -1347,8 +1372,8 @@
     <hyperlink ref="E11" r:id="rId9" xr:uid="{159D3568-73B9-42DA-A3DD-D06B10D196EE}"/>
     <hyperlink ref="E13" r:id="rId10" xr:uid="{D4BFFE3B-1686-4A6A-91D2-BCF03DA7937C}"/>
     <hyperlink ref="E14" r:id="rId11" xr:uid="{787009D8-C5D8-429C-B9C1-275B3FD60695}"/>
-    <hyperlink ref="E15" r:id="rId12" xr:uid="{ED964812-E50B-4053-82FC-7F1522275337}"/>
-    <hyperlink ref="E12" r:id="rId13" xr:uid="{BDE6F34D-A6BB-43F1-884B-6812B0026381}"/>
+    <hyperlink ref="E12" r:id="rId12" xr:uid="{BDE6F34D-A6BB-43F1-884B-6812B0026381}"/>
+    <hyperlink ref="E15" r:id="rId13" xr:uid="{ED964812-E50B-4053-82FC-7F1522275337}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>

--- a/CUKBM/CUKBM url_mapping.xlsx
+++ b/CUKBM/CUKBM url_mapping.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkstk\Desktop\CUKBM 팀플\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkstk\Documents\GitHub\CUKBM\CUKBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E7C4F1-0E88-4F7C-8B7B-7673654F6418}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C75F0A8-A9A4-4BC1-BF28-E5A851D3E3F7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6F530BDD-8E11-42FA-A116-4FCD58A76D50}"/>
   </bookViews>
@@ -199,10 +199,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>value:create + …</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>value:join + …</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -257,6 +253,10 @@
 성공 시 /main으로 연결 &amp; 세션에 id:해당id, login:true 값 추가
 result:fail -&gt; 실패
 로그인 실패 alert</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>post요청 value:create + …</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -844,7 +844,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -946,7 +946,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>8</v>
@@ -1001,7 +1001,7 @@
     <row r="9" spans="1:8" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>30</v>
@@ -1021,10 +1021,10 @@
     <row r="10" spans="1:8" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A10" s="19"/>
       <c r="B10" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>13</v>
@@ -1033,7 +1033,7 @@
         <v>15</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1041,29 +1041,29 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="17"/>
       <c r="B11" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="F11" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A12" s="17"/>
       <c r="B12" s="18" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>36</v>
@@ -1075,7 +1075,7 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="17"/>
       <c r="B13" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17" t="s">
@@ -1085,7 +1085,7 @@
         <v>37</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1093,7 +1093,7 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="17"/>
       <c r="B14" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17" t="s">
@@ -1109,7 +1109,7 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="17"/>
       <c r="B15" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17" t="s">
